--- a/アカウント削除テストケース.xlsx
+++ b/アカウント削除テストケース.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87BEA34-68B3-42A2-935A-AFE7BBF59728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3CAF64-BD91-4FC5-8A35-6CCCB3066F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
+    <sheet name="結合テスト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -159,6 +160,49 @@
   </si>
   <si>
     <t>パスワード欄が「●●●●●●●●」のように伏せ字で表示される</t>
+  </si>
+  <si>
+    <t>単体テストで
+画面表示項目の
+確認済み</t>
+  </si>
+  <si>
+    <t>単体テストで文言・
+表示位置確認済み</t>
+  </si>
+  <si>
+    <t>単体テストで
+DB更新処理確認済み</t>
+  </si>
+  <si>
+    <t>単体テストで文言・
+CSS表示確認済み</t>
+  </si>
+  <si>
+    <t>単体テストで
+表示変換確認済み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">単体テストで再現済みだが、PHP自体が処理を止めてしまったため、エラーで赤字表示されず。
+</t>
+  </si>
+  <si>
+    <t>単体テストで再現済みだが、PDOエラー文が直接表示された。</t>
+  </si>
+  <si>
+    <t>単体テストでID保持と画面復元確認済み</t>
+  </si>
+  <si>
+    <t>単体テストで伏せ字表示確認済み</t>
+  </si>
+  <si>
+    <t>削除完了後の一覧画面連携</t>
+  </si>
+  <si>
+    <t>1.削除完了画面からTOPページへ戻る 2.一覧画面を表示する</t>
+  </si>
+  <si>
+    <t>該当アカウントが表示されない</t>
   </si>
 </sst>
 </file>
@@ -208,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -307,6 +351,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -340,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,15 +429,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -787,7 +855,7 @@
       <c r="H2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -816,7 +884,7 @@
       <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -845,7 +913,7 @@
       <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -874,7 +942,7 @@
       <c r="H5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -903,7 +971,7 @@
       <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -932,7 +1000,7 @@
       <c r="H7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -961,7 +1029,7 @@
       <c r="H8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -990,7 +1058,7 @@
       <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -998,13 +1066,13 @@
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1016,10 +1084,10 @@
       <c r="G10" s="8">
         <v>45903</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1028,4 +1096,350 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EDBD9E-10BE-420A-AA10-7A7D66039185}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="70.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="153" customHeight="1">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="153" customHeight="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="153" customHeight="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="153" customHeight="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="153" customHeight="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="153" customHeight="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="153" customHeight="1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="153" customHeight="1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="153" customHeight="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8">
+        <v>45903</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="153" customHeight="1">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="14">
+        <v>45903</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="153" customHeight="1"/>
+    <row r="13" spans="1:9" ht="153" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/アカウント削除テストケース.xlsx
+++ b/アカウント削除テストケース.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29301"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C3CAF64-BD91-4FC5-8A35-6CCCB3066F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C8C3AD5-B923-4292-87D4-9620014F8D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -131,8 +131,8 @@
     <t>×</t>
   </si>
   <si>
-    <t xml:space="preserve">PHP自体が処理を止めてしまったため、エラーで赤字表示されず。
-</t>
+    <t>PHP自体が処理を止めてしまったため、エラーで赤字表示されず。
+→db_connect.phpを修正し、自身で入力したメッセージを優先して表示</t>
   </si>
   <si>
     <t>削除処理（DB接続失敗）</t>
@@ -141,7 +141,8 @@
     <t>1.XAMPPのMySQLを停止する 2.削除確認画面から「削除する」ボタンを押す</t>
   </si>
   <si>
-    <t>赤字でエラー表示されｚす、「DB接続エラー：SQLSTATE[HY000] [2002] 対象のコンピューターによって拒否されたため、接続できませんでした。」と表示された。</t>
+    <t>赤字でエラー表示されｚす、「DB接続エラー：SQLSTATE[HY000] [2002] 対象のコンピューターによって拒否されたため、接続できませんでした。」と表示された。→
+→db_connect.phpを修正し、自身で入力したメッセージを優先して表示</t>
   </si>
   <si>
     <t>削除確認画面の戻る動作</t>
@@ -184,10 +185,12 @@
   </si>
   <si>
     <t xml:space="preserve">単体テストで再現済みだが、PHP自体が処理を止めてしまったため、エラーで赤字表示されず。
+→db_connect.phpを修正し、自身で入力したメッセージを優先して表示
 </t>
   </si>
   <si>
-    <t>単体テストで再現済みだが、PDOエラー文が直接表示された。</t>
+    <t>単体テストで再現済みだが、PDOエラー文が直接表示された。
+→db_connect.phpを修正し、自身で入力したメッセージを優先して表示</t>
   </si>
   <si>
     <t>単体テストでID保持と画面復元確認済み</t>
@@ -785,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:I10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1004,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="153" customHeight="1">
+    <row r="8" spans="1:9" ht="235.5" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1055,9 +1058,7 @@
       <c r="G9" s="8">
         <v>45903</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="H9" s="5"/>
       <c r="I9" s="15" t="s">
         <v>15</v>
       </c>
@@ -1102,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EDBD9E-10BE-420A-AA10-7A7D66039185}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
